--- a/FillWeatherStat/4.xlsx
+++ b/FillWeatherStat/4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\shanzhashu\FillWeatherStat\Win32\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C350B59C-0F2C-4BA1-BAE3-0DEFD7B70EAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFD3B8C-A934-42F3-A424-737CBC348EB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,16 +74,6 @@
     <t>核查点（m/s）</t>
   </si>
   <si>
-    <t xml:space="preserve">标准值
-（m/s）
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">被核查示值
-（m/s）
-</t>
-  </si>
-  <si>
     <t>示值误差（m/s）</t>
   </si>
   <si>
@@ -127,13 +117,23 @@
 区站号：J7231
 </t>
   </si>
+  <si>
+    <t>标准值
+（m/s）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>被核查示值
+（m/s）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -345,9 +345,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,13 +375,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -393,62 +390,74 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="31" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -456,17 +465,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -824,266 +824,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-    </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+    </row>
+    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="39">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="39">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="F5" s="40"/>
+    </row>
+    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="222.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="23"/>
+      <c r="B7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-    </row>
-    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="24">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="24">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="C9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="32"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:6" ht="222.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
-      <c r="B7" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-    </row>
-    <row r="8" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="43"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+      <c r="B10" s="13">
         <v>2</v>
       </c>
-      <c r="B10" s="14">
+      <c r="C10" s="14">
         <v>2</v>
       </c>
-      <c r="C10" s="15">
-        <v>2</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <f>C10-B10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="41"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>5</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <f>C11-B11</f>
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>10</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>10</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <f>C12-B12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="41"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>20</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>20.2</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>20.100000000000001</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <f>C13-B13</f>
         <v>-9.9999999999997868E-2</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="41"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>40</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>40.4</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>40.4</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <f>C14-B14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="41"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="29">
         <v>45000</v>
       </c>
-      <c r="F18" s="37"/>
+      <c r="F18" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="A6:A7"/>
@@ -1096,22 +1110,9 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.66929133858267698" right="0.39370078740157499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FillWeatherStat/4.xlsx
+++ b/FillWeatherStat/4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\shanzhashu\FillWeatherStat\Win32\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFD3B8C-A934-42F3-A424-737CBC348EB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E735C0-219E-42E0-AB92-BCB1673FCC8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风速" sheetId="8" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>核查点（m/s）</t>
   </si>
   <si>
-    <t>示值误差（m/s）</t>
-  </si>
-  <si>
     <t>区域自动气象站现场核查方法（试行）</t>
   </si>
   <si>
@@ -124,6 +121,11 @@
   </si>
   <si>
     <t>被核查示值
+（m/s）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>示值误差
 （m/s）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -387,13 +389,61 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -409,9 +459,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -422,51 +469,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -824,111 +826,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="A1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="C3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="18"/>
+      <c r="B4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="25">
         <v>0.54861111111111105</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="25">
         <v>0.65972222222222221</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" ht="222.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="27"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>6</v>
@@ -1031,48 +1033,48 @@
       <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+    </row>
+    <row r="17" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+    </row>
+    <row r="18" spans="1:6" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="43" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>5</v>
@@ -1084,6 +1086,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -1100,16 +1112,6 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.66929133858267698" right="0.39370078740157499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
